--- a/Assets/__Project/Excel/ConstantTable/LocalizationText.xlsx
+++ b/Assets/__Project/Excel/ConstantTable/LocalizationText.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\PandaIsPanda\Assets\__Project\Excel\ConstantTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD7653F-6FE6-4AB9-B6F6-30A44A438181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD51D52F-8FB2-45A9-8C71-D4555627408B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36510" yWindow="6915" windowWidth="21600" windowHeight="11295" xr2:uid="{39B0813D-EEC4-4950-A89B-04D0AEABF1C1}"/>
+    <workbookView xWindow="30840" yWindow="2925" windowWidth="21600" windowHeight="11295" xr2:uid="{39B0813D-EEC4-4950-A89B-04D0AEABF1C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,11 +66,98 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>판다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>panda</t>
+    <t>토큰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jeton</t>
+  </si>
+  <si>
+    <t>곰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흰곰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>White Bear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적곰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흑곰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청곰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Read Bear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Black Bear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blue Bear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>곰 스킨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bear Skin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흰곰 스킨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적곰 스킨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흑곰 스킨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청곰 스킨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>White Bear Skin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Read Bear Skin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Black Bear Skin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blue Bear Skin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -78,7 +165,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,6 +176,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF040C28"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
@@ -117,11 +212,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -458,16 +556,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D8B2050-A0C3-4ED6-A914-8474FA4A2226}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4:A7"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -508,8 +609,162 @@
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>100001</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>100002</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>100003</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>100004</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>100005</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>200001</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>200002</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>200003</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>200004</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>200005</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>200006</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/__Project/Excel/ConstantTable/LocalizationText.xlsx
+++ b/Assets/__Project/Excel/ConstantTable/LocalizationText.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\PandaIsPanda\Assets\__Project\Excel\ConstantTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD51D52F-8FB2-45A9-8C71-D4555627408B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21F2E2B2-6F25-45DE-B0A5-FC2F51A24F24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30840" yWindow="2925" windowWidth="21600" windowHeight="11295" xr2:uid="{39B0813D-EEC4-4950-A89B-04D0AEABF1C1}"/>
+    <workbookView xWindow="31140" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{39B0813D-EEC4-4950-A89B-04D0AEABF1C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="32">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -158,6 +158,10 @@
   </si>
   <si>
     <t>테스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트 2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -556,11 +560,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D8B2050-A0C3-4ED6-A914-8474FA4A2226}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="A16:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -767,6 +771,34 @@
         <v>30</v>
       </c>
     </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>200007</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>200008</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/__Project/Excel/ConstantTable/LocalizationText.xlsx
+++ b/Assets/__Project/Excel/ConstantTable/LocalizationText.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\PandaIsPanda\Assets\__Project\Excel\ConstantTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21F2E2B2-6F25-45DE-B0A5-FC2F51A24F24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4249B4C9-0C27-4592-A2E6-91D9346DE970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31140" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{39B0813D-EEC4-4950-A89B-04D0AEABF1C1}"/>
+    <workbookView xWindow="36015" yWindow="3015" windowWidth="21600" windowHeight="11295" xr2:uid="{39B0813D-EEC4-4950-A89B-04D0AEABF1C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -154,14 +154,6 @@
   </si>
   <si>
     <t>Blue Bear Skin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>테스트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>테스트 2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -560,11 +552,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D8B2050-A0C3-4ED6-A914-8474FA4A2226}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="A16:D16"/>
+      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -757,48 +749,6 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>200006</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>200007</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>200008</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/__Project/Excel/ConstantTable/LocalizationText.xlsx
+++ b/Assets/__Project/Excel/ConstantTable/LocalizationText.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\PandaIsPanda\Assets\__Project\Excel\ConstantTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4249B4C9-0C27-4592-A2E6-91D9346DE970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00A3CEE0-2407-4BEA-B4F9-34ED9ADE2DF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36015" yWindow="3015" windowWidth="21600" windowHeight="11295" xr2:uid="{39B0813D-EEC4-4950-A89B-04D0AEABF1C1}"/>
+    <workbookView xWindow="36690" yWindow="2580" windowWidth="21600" windowHeight="11295" xr2:uid="{39B0813D-EEC4-4950-A89B-04D0AEABF1C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,17 +66,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>토큰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Token</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jeton</t>
-  </si>
-  <si>
     <t>곰</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -125,35 +114,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>흰곰 스킨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>적곰 스킨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>흑곰 스킨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>청곰 스킨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>White Bear Skin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Read Bear Skin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Black Bear Skin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Blue Bear Skin</t>
+    <t>죽순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bamboo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>골드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gold</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -161,7 +134,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,14 +145,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF040C28"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
@@ -208,14 +173,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -552,11 +514,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D8B2050-A0C3-4ED6-A914-8474FA4A2226}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
+      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -600,153 +562,111 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>100001</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>100002</v>
+        <v>100001</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>100003</v>
+        <v>100002</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>100004</v>
+        <v>100003</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>100005</v>
+        <v>100004</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>200001</v>
+        <v>100005</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>200002</v>
+        <v>200001</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>200003</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>200004</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>200005</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
